--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed1/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.75119999999998</v>
+        <v>-20.60769999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.0756</v>
+        <v>-11.79960000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.52380000000002</v>
+        <v>-22.66820000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -522,12 +522,12 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.917899999999998</v>
+        <v>-8.153599999999997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-18.8215</v>
+        <v>-18.86999999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,21 +536,21 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.196699999999989</v>
+        <v>-8.282199999999992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.7969</v>
+        <v>-21.9364</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.0837</v>
+        <v>-13.212</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.048400000000001</v>
+        <v>-8.866799999999996</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2547</v>
+        <v>-10.24470000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.719099999999997</v>
+        <v>-7.780999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.06989999999999</v>
+        <v>-10.25669999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.549999999999994</v>
+        <v>-8.531899999999991</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.0517</v>
+        <v>-7.2779</v>
       </c>
     </row>
     <row r="15">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.91150000000001</v>
+        <v>-22.0177</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.630499999999998</v>
+        <v>-8.544699999999995</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.53519999999999</v>
+        <v>-14.33439999999998</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.38349999999999</v>
+        <v>-12.55549999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.4524</v>
+        <v>-11.2757</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.93199999999999</v>
+        <v>-20.09429999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.4738</v>
+        <v>-12.4408</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.35199999999998</v>
+        <v>-20.44359999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.10980000000001</v>
+        <v>-12.03030000000002</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9084</v>
+        <v>-22.0277</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.34649999999997</v>
+        <v>-21.34939999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.57160000000002</v>
+        <v>-21.49320000000002</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.731499999999995</v>
+        <v>-6.946099999999992</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.53900000000001</v>
+        <v>-13.00090000000001</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.36030000000001</v>
+        <v>-21.35880000000002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.081</v>
+        <v>-8.676499999999997</v>
       </c>
     </row>
     <row r="38">
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.7537</v>
+        <v>-11.86749999999999</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-18.79410000000001</v>
+        <v>-20.32620000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.32659999999999</v>
+        <v>-12.19310000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.116599999999995</v>
+        <v>-7.369699999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.0795</v>
+        <v>-12.14629999999999</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.7798</v>
+        <v>-11.7803</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.50079999999999</v>
+        <v>-12.26909999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.577900000000003</v>
+        <v>-6.593700000000007</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.77350000000001</v>
+        <v>-21.82730000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.2662</v>
+        <v>-12.20019999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.33219999999999</v>
+        <v>-11.458</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.70089999999999</v>
+        <v>-21.69289999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.28469999999999</v>
+        <v>-22.2427</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.2905</v>
+        <v>-13.3123</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.37560000000002</v>
+        <v>-22.44840000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.34180000000001</v>
+        <v>-22.24470000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.9619</v>
+        <v>-21.9822</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.5892</v>
+        <v>-13.2281</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.2871</v>
+        <v>-10.3647</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.06759999999999</v>
+        <v>-10.21929999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.48000000000001</v>
+        <v>-21.4373</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.539599999999997</v>
+        <v>-6.652299999999998</v>
       </c>
     </row>
     <row r="71">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.54179999999998</v>
+        <v>-20.44399999999997</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.41459999999997</v>
+        <v>-21.49629999999997</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.3897</v>
+        <v>-12.17100000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.65940000000001</v>
+        <v>-20.541</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.89709999999999</v>
+        <v>-13.06419999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.4025</v>
+        <v>-13.2324</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.3055</v>
+        <v>-14.77039999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.183099999999998</v>
+        <v>-8.457799999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.1029</v>
+        <v>-8.304499999999996</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.6655</v>
+        <v>-21.6526</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.292299999999995</v>
+        <v>-6.381499999999994</v>
       </c>
     </row>
     <row r="94">
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.42</v>
+        <v>-10.53459999999999</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.970599999999999</v>
+        <v>-7.060800000000003</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9387</v>
+        <v>-22.07220000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
